--- a/reports/solicitudes_inquiring/templates/xlsx/template.xlsx
+++ b/reports/solicitudes_inquiring/templates/xlsx/template.xlsx
@@ -8,29 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david.colomer\Documents\CSB\Informes36\custreport\reports\solicitudes_inquiring\templates\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615316A6-B2F7-4F03-8E04-4841BF90E755}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29D4436-0DDE-48C6-A5E7-156ED311A143}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$Y$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$Q$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Request ID</t>
   </si>
   <si>
-    <t>Request Type</t>
-  </si>
-  <si>
     <t>Customer ID</t>
   </si>
   <si>
@@ -40,36 +37,15 @@
     <t>Customer External ID</t>
   </si>
   <si>
-    <t>Product ID</t>
-  </si>
-  <si>
-    <t>Product Name</t>
-  </si>
-  <si>
     <t>Asset ID</t>
   </si>
   <si>
     <t>Asset External ID</t>
   </si>
   <si>
-    <t>Transaction Type</t>
-  </si>
-  <si>
-    <t>Hub ID</t>
-  </si>
-  <si>
-    <t>Hub Name</t>
-  </si>
-  <si>
-    <t>Request Status</t>
-  </si>
-  <si>
     <t>Created At</t>
   </si>
   <si>
-    <t>Asset Status</t>
-  </si>
-  <si>
     <t>Customer Tax ID</t>
   </si>
   <si>
@@ -97,7 +73,7 @@
     <t>Domain Reason</t>
   </si>
   <si>
-    <t>Last Change at</t>
+    <t>Last Change At</t>
   </si>
 </sst>
 </file>
@@ -444,118 +420,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Y1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="8" width="17.5703125" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="14" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="6" width="17.5703125" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Y1" xr:uid="{4B4C567F-19CC-43F3-A784-B79D65DF0209}"/>
+  <autoFilter ref="A1:Q1" xr:uid="{4B4C567F-19CC-43F3-A784-B79D65DF0209}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/reports/solicitudes_inquiring/templates/xlsx/template.xlsx
+++ b/reports/solicitudes_inquiring/templates/xlsx/template.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david.colomer\Documents\CSB\Informes36\custreport\reports\solicitudes_inquiring\templates\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29D4436-0DDE-48C6-A5E7-156ED311A143}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D84209E4-8041-45F1-9610-6F1F518160F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$Q$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$N$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Request ID</t>
   </si>
@@ -49,19 +49,10 @@
     <t>Customer Tax ID</t>
   </si>
   <si>
-    <t>Technical Contact Name</t>
-  </si>
-  <si>
-    <t>Tech.Contact e-Mail</t>
-  </si>
-  <si>
     <t>TC e-Mail Reason</t>
   </si>
   <si>
     <t>TC Name Reason</t>
-  </si>
-  <si>
-    <t>Tech.Contact Phone</t>
   </si>
   <si>
     <t>TC Phone Reason</t>
@@ -420,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -436,17 +427,13 @@
     <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1" outlineLevel="1"/>
     <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -454,7 +441,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -475,32 +462,23 @@
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q1" xr:uid="{4B4C567F-19CC-43F3-A784-B79D65DF0209}"/>
+  <autoFilter ref="A1:N1" xr:uid="{4B4C567F-19CC-43F3-A784-B79D65DF0209}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>